--- a/experiment/quadratic/ex9_2_1/compare/Fuertemente-Estacionario/ex9_2_1_Fuertemente-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_1/compare/Fuertemente-Estacionario/ex9_2_1_Fuertemente-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>-379.6460886544744</v>
       </c>
       <c r="E2">
-        <v>0.00713673</v>
+        <v>0.004815679</v>
       </c>
       <c r="F2">
-        <v>0.01712727</v>
+        <v>0.030442861</v>
       </c>
       <c r="G2">
-        <v>0.009199091104972376</v>
+        <v>0.008176077955810147</v>
       </c>
       <c r="H2">
         <v>2320</v>
@@ -514,13 +514,13 @@
         <v>-379.6460918062612</v>
       </c>
       <c r="E3">
-        <v>0.00536949</v>
+        <v>0.004498385</v>
       </c>
       <c r="F3">
-        <v>0.01142235</v>
+        <v>0.025137968</v>
       </c>
       <c r="G3">
-        <v>0.0063574187892376675</v>
+        <v>0.005971634445639188</v>
       </c>
       <c r="H3">
         <v>5292</v>
